--- a/src/main/AllyisApps/Resources/Files/TimeEntryImportTemplate.xlsx
+++ b/src/main/AllyisApps/Resources/Files/TimeEntryImportTemplate.xlsx
@@ -12,66 +12,25 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9510"/>
   </bookViews>
   <sheets>
-    <sheet name="AboutImporting" sheetId="3" r:id="rId1"/>
+    <sheet name="About Importing" sheetId="3" r:id="rId1"/>
     <sheet name="Time Entries" sheetId="5" r:id="rId2"/>
-    <sheet name="Users" sheetId="2" r:id="rId3"/>
-    <sheet name="Project" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="30">
-  <si>
-    <t>Project Name</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="15">
   <si>
     <t>Project Id</t>
   </si>
   <si>
-    <t>Customer Id</t>
-  </si>
-  <si>
     <t>PROJ-0001</t>
   </si>
   <si>
-    <t>CUST-0001</t>
-  </si>
-  <si>
-    <t>Customer Name</t>
-  </si>
-  <si>
-    <t>User Last Name</t>
-  </si>
-  <si>
-    <t>User First Name</t>
-  </si>
-  <si>
-    <t>User Email</t>
-  </si>
-  <si>
     <t>Employee Id</t>
   </si>
   <si>
-    <t>Smith</t>
-  </si>
-  <si>
-    <t>Jones</t>
-  </si>
-  <si>
-    <t>Bob</t>
-  </si>
-  <si>
-    <t>Fred</t>
-  </si>
-  <si>
-    <t>bsmith@example.com</t>
-  </si>
-  <si>
-    <t>fjones@example.com</t>
-  </si>
-  <si>
     <t>EMP-0001</t>
   </si>
   <si>
@@ -81,14 +40,6 @@
     <t>Importing Time Entries</t>
   </si>
   <si>
-    <t xml:space="preserve">      To import time entries in bulk from a spreadsheet, all you need is to have your data organized under the correct column headers. AllyisApps will recognize the column header names and import the items on each row. See the next worksheet in this workbook for examples.
-     The required columns are Date, Duration, Pay Class, one of either Project Name or Project Id, and one of User Email, Employee Id, or both User First Name and User Last Name. You must have all five (or six, if using first/last name) on the same worksheet in order to import time entries. Optionally, you can also include Description.
-     Each time entry must be associated with a project and a user, but any identifying information for either will work. You don't need both Project Name and Project Id, just one. The project indentified must either already exist, or there must be enough information on this or another worksheet in the workbook to import it (see the Template example on the Customers page for more information on importing projects and customers). If there are multiple projects with the same name/id but under differenct customers, you should also include a column for either Customer Name or Customer Id to specify which one this time entry's project falls under. If not, the import method will simply search for a matching project and use whichever it finds first.
-     Similarly, you don't need all the required information for a user, just enough to uniquely identify one. You can use User Email or Employee Id to accomplish this, or both User First Name and User Last Name together. As with projects, the user must either already exist, or there must be enough information on this or another worksheet in the workbook to import the user (see the Template example on the Add User page for more information on importing users).
-     If you are importing projects or users with the same workbook as time entries, you don't have to worry about the worksheets being in a specific order. If the import method encounters a time entry for a user or project it hasn't imported yet, it will check the other worksheets for the required information and import the user or project (or customer) first. You only need to make sure that the required information exists.
-     Any unrecognized column headers will simply be ignored, as will blank rows. For example, this "AboutImporting" worksheet will have no effect on an import because it contains no relevant column headers.</t>
-  </si>
-  <si>
     <t>Date</t>
   </si>
   <si>
@@ -101,12 +52,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Example Project</t>
-  </si>
-  <si>
-    <t>Example Customer</t>
-  </si>
-  <si>
     <t>Regular</t>
   </si>
   <si>
@@ -117,13 +62,19 @@
   </si>
   <si>
     <t>Left early for concert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     This workbook demonstrates how to import time entries in bulk. Required columns have bold column headers in this example (you don't need to use bold for importing), and optional column headers are not bold. It is important that you spell the columns headers exactly as you see them here, but it does not matter what order the columns are in or if there are additional columns with other headers (they will be ignored).
+     The next sheet ("Time Entries") shows what you need to import time entries for users and projects that already exist. You should import customers, projects, and users before you import time entries (see the example templates available on the Customers page and the Add User page for instructions on importing customers, projects, and users).
+     When you import time entries, users are automatically added to projects and to your Time Tracker subscription. If your subscription is full, it will result in an error and a failure to import that time entry.
+     Note: this example uses "Employee Id" and "Project Id" to identify the user and project, but you can use other identifying columns for this purpose. For users, you could also use either "User Email", or both "User Last Name" and "User First Name". For projects, you could use "Project Name". If there are projects with the same name or id under different customers, you should also have a column for "Customer Name" or "Customer Id" to distinguish which you want.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -254,14 +205,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -564,7 +507,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="43">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -607,18 +550,20 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="43">
+  <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -652,7 +597,6 @@
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -973,27 +917,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="112.28515625" customWidth="1"/>
+    <col min="1" max="1" width="96.28515625" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:1" ht="384.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>19</v>
-      </c>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:2" ht="231.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1018,30 +964,30 @@
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1">
         <v>42723</v>
@@ -1050,15 +996,15 @@
         <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C3" s="1">
         <v>42724</v>
@@ -1067,15 +1013,15 @@
         <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C4" s="1">
         <v>42725</v>
@@ -1084,15 +1030,15 @@
         <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C5" s="1">
         <v>42726</v>
@@ -1101,15 +1047,15 @@
         <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C6" s="1">
         <v>42727</v>
@@ -1118,18 +1064,18 @@
         <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C7" s="1">
         <v>42723</v>
@@ -1138,18 +1084,18 @@
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C8" s="1">
         <v>42724</v>
@@ -1158,15 +1104,15 @@
         <v>8</v>
       </c>
       <c r="E8" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C9" s="1">
         <v>42725</v>
@@ -1175,15 +1121,15 @@
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C10" s="1">
         <v>42726</v>
@@ -1192,15 +1138,15 @@
         <v>8</v>
       </c>
       <c r="E10" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C11" s="1">
         <v>42727</v>
@@ -1209,130 +1155,14 @@
         <v>8</v>
       </c>
       <c r="E11" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>